--- a/companies.xlsx
+++ b/companies.xlsx
@@ -1,52 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saiku\Downloads\free-all-companies-pack\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A69410-C6E4-4CC9-A5BF-1405A6DB70A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>company_name</t>
   </si>
   <si>
+    <t>career_url</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
     <t>provider</t>
   </si>
   <si>
     <t>slug</t>
   </si>
   <si>
-    <t>career_url</t>
-  </si>
-  <si>
-    <t>keywords</t>
-  </si>
-  <si>
-    <t>Acme Inc</t>
-  </si>
-  <si>
-    <t>Globex</t>
-  </si>
-  <si>
-    <t>Widget Co</t>
-  </si>
-  <si>
-    <t>ExampleCorp</t>
+    <t>OpenAI</t>
+  </si>
+  <si>
+    <t>Databricks</t>
+  </si>
+  <si>
+    <t>Canva</t>
+  </si>
+  <si>
+    <t>Stripe</t>
+  </si>
+  <si>
+    <t>NVIDIA</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/openai</t>
+  </si>
+  <si>
+    <t>https://jobs.lever.co/databricks</t>
+  </si>
+  <si>
+    <t>https://www.smartrecruiters.com/Canva</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/stripe</t>
+  </si>
+  <si>
+    <t>https://nvidia.wd5.myworkdayjobs.com/en-US/NVIDIAExternalCareerSite</t>
+  </si>
+  <si>
+    <t>LLM; research; machine learning; NLP</t>
+  </si>
+  <si>
+    <t>LLM; NLP; data scientist; ML engineer</t>
+  </si>
+  <si>
+    <t>machine learning; AI engineer; research</t>
+  </si>
+  <si>
+    <t>LLM; data scientist; machine learning</t>
+  </si>
+  <si>
+    <t>NLP; LLM; machine learning; research</t>
   </si>
   <si>
     <t>greenhouse</t>
@@ -55,44 +82,26 @@
     <t>lever</t>
   </si>
   <si>
-    <t>acme</t>
-  </si>
-  <si>
-    <t>globex</t>
-  </si>
-  <si>
-    <t>https://widgetco.wd5.myworkdayjobs.com/en-US/WidgetCo</t>
-  </si>
-  <si>
-    <t>https://boards.greenhouse.io/examplecorp</t>
-  </si>
-  <si>
-    <t>LLM; machine learning; NLP</t>
-  </si>
-  <si>
-    <t>AI; ML engineer</t>
-  </si>
-  <si>
-    <t>data scientist; LLM</t>
-  </si>
-  <si>
-    <t>gen ai; nlp</t>
-  </si>
-  <si>
-    <t>Microsoft</t>
-  </si>
-  <si>
-    <t>https://jobs.careers.microsoft.com/global/en/search?lc=United%20States&amp;l=en_us&amp;pg=1&amp;pgSz=20&amp;o=Recent</t>
-  </si>
-  <si>
-    <t>data engineer; SQL; Python</t>
+    <t>smartrecruiters</t>
+  </si>
+  <si>
+    <t>workday</t>
+  </si>
+  <si>
+    <t>openai</t>
+  </si>
+  <si>
+    <t>databricks</t>
+  </si>
+  <si>
+    <t>stripe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,21 +177,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -220,7 +221,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -254,7 +255,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -289,10 +289,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -465,16 +464,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,72 +488,95 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
+      <c r="D6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D6" r:id="rId3" xr:uid="{B7C971FB-7D3A-47D1-AA53-F5425AD63578}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
